--- a/biology/Botanique/Sagittaire_(plante)/Sagittaire_(plante).xlsx
+++ b/biology/Botanique/Sagittaire_(plante)/Sagittaire_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sagittaria
-Le genre Sagittaria (les sagittaires ou fléchières) regroupe des espèces de plantes aquatiques de la famille des Alismataceae. Certaines possèdent des tubercules comestibles jadis consommés par les peuples autochtones[1].
+Le genre Sagittaria (les sagittaires ou fléchières) regroupe des espèces de plantes aquatiques de la famille des Alismataceae. Certaines possèdent des tubercules comestibles jadis consommés par les peuples autochtones.
 Dans d'autres langues, on l'appelle aussi katniss, arrowhead, duck potato, swamp potato, tule potato, et wapato (ou wapatoo) en anglais, Pfeilkraut en allemand, ou omodaka (沢瀉) en japonais.
 "Katniss" est également le nom de l'héroïne de la trilogie Hunger Games.
 </t>
@@ -514,7 +526,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sagittaria ambigua J.G. Sm.
 Sagittaria australis (J.G. Sm.) Small
